--- a/xlsx/美洲原住民_intext.xlsx
+++ b/xlsx/美洲原住民_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
   <si>
     <t>美洲原住民</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
   </si>
   <si>
-    <t>美國原住民</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美洲原住民</t>
+    <t>美国原住民</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美洲原住民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%A3%AB%E8%92%82%E7%B4%A2%E4%BA%BA</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91%E8%AF%AD%E8%A8%80</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91%E7%A5%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>美洲原住民神話</t>
+    <t>美洲原住民神话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91%E5%AE%97%E6%95%99</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B7%E5%BE%99%E6%96%B0%E5%A4%A7%E9%99%B8%E6%A8%A1%E5%9E%8B</t>
   </si>
   <si>
-    <t>遷徙新大陸模型</t>
+    <t>迁徙新大陆模型</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E4%BA%BA</t>
@@ -275,15 +275,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%9B%85%E5%88%BB%E6%9C%AC</t>
   </si>
   <si>
-    <t>瑪雅刻本</t>
+    <t>玛雅刻本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>美洲原住民語言</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E7%B3%BB</t>
   </si>
   <si>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%C2%B7%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>克里斯多福·哥倫布</t>
+    <t>克里斯多福·哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -317,31 +314,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%90%8D</t>
@@ -353,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%AD%A3%E7%A2%BA</t>
   </si>
   <si>
-    <t>政治正確</t>
+    <t>政治正确</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%B0%91%E6%97%8F</t>
@@ -371,25 +365,22 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BB%A4%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>白令海峽</t>
+    <t>白令海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E4%BA%BA%E7%A8%AE</t>
   </si>
   <si>
-    <t>蒙古人種</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%9B%9B%E7%B4%80</t>
   </si>
   <si>
-    <t>第四紀</t>
+    <t>第四纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E6%B2%B3%E6%9C%9F</t>
@@ -419,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BF%92%E4%BF%97</t>
   </si>
   <si>
-    <t>習俗</t>
+    <t>习俗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD</t>
@@ -437,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%8C%B2%E7%89%B9%E5%85%8B%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>阿茲特克文明</t>
+    <t>阿兹特克文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%8A%B1</t>
@@ -455,13 +446,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89</t>
   </si>
   <si>
-    <t>瓜地馬拉</t>
+    <t>瓜地马拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%8C%B2%E7%89%B9%E5%85%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>阿茲特克人</t>
+    <t>阿兹特克人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%B0%94%E7%89%B9%E5%85%8B%E4%BA%BA</t>
@@ -479,9 +470,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E7%88%BE</t>
   </si>
   <si>
-    <t>厄瓜多爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%8A%A0</t>
   </si>
   <si>
@@ -491,13 +479,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%8C%B2%E6%8F%90%E5%85%8B</t>
   </si>
   <si>
-    <t>阿茲提克</t>
+    <t>阿兹提克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -509,19 +497,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%9B%85</t>
   </si>
   <si>
-    <t>瑪雅</t>
+    <t>玛雅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%9B%85%E8%B1%A1%E5%BD%A2%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>瑪雅象形文字</t>
+    <t>玛雅象形文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>天文學</t>
+    <t>天文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3</t>
@@ -533,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%88%B4%E8%96%AF</t>
   </si>
   <si>
-    <t>馬鈴薯</t>
+    <t>马铃薯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%A3%E6%A4%92</t>
@@ -611,13 +599,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E6%8E%A5%E8%A7%B8%E9%83%A8%E8%90%BD</t>
   </si>
   <si>
-    <t>未接觸部落</t>
+    <t>未接触部落</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>遺傳學</t>
+    <t>遗传学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E9%83%A8%E8%90%BD</t>
@@ -629,31 +617,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%A6%E5%B7%A5</t>
   </si>
   <si>
-    <t>礦工</t>
+    <t>矿工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%95%99%E5%A3%AB</t>
   </si>
   <si>
-    <t>傳教士</t>
+    <t>传教士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>人類學家</t>
+    <t>人类学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E9%9B%A8%E6%9E%97</t>
   </si>
   <si>
-    <t>亞馬遜雨林</t>
+    <t>亚马逊雨林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E8%A1%80%E5%85%92</t>
   </si>
   <si>
-    <t>混血兒</t>
+    <t>混血儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%96%BE%E7%97%85</t>
@@ -665,13 +653,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BA%BA</t>
   </si>
   <si>
-    <t>歐洲人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>美洲大陸</t>
+    <t>美洲大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91</t>
@@ -683,19 +668,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%BB%85%E7%B5%95</t>
   </si>
   <si>
-    <t>種族滅絕</t>
+    <t>种族灭绝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E6%BB%85%E7%B5%95</t>
   </si>
   <si>
-    <t>文化滅絕</t>
+    <t>文化灭绝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C</t>
   </si>
   <si>
-    <t>亞馬遜</t>
+    <t>亚马逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -713,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%B0%E5%BA%A6%E6%AF%80%E6%BB%85%E8%BF%B0%E7%95%A5</t>
   </si>
   <si>
-    <t>西印度毀滅述略</t>
+    <t>西印度毁灭述略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E8%85%BE%E5%B4%87%E6%8B%9C</t>
@@ -725,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2349,7 +2334,7 @@
         <v>87</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2375,10 +2360,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2404,10 +2389,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2433,10 +2418,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -2462,10 +2447,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2491,10 +2476,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>8</v>
@@ -2520,10 +2505,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2549,10 +2534,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2578,10 +2563,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>6</v>
@@ -2607,10 +2592,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G53" t="n">
         <v>8</v>
@@ -2636,10 +2621,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2665,10 +2650,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2694,10 +2679,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2723,10 +2708,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2752,10 +2737,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2781,10 +2766,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>4</v>
@@ -2810,10 +2795,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -2839,10 +2824,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2868,10 +2853,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2897,10 +2882,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2926,10 +2911,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2955,10 +2940,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2984,10 +2969,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G66" t="n">
         <v>6</v>
@@ -3013,10 +2998,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3042,10 +3027,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G68" t="n">
         <v>7</v>
@@ -3071,10 +3056,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3100,10 +3085,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3129,10 +3114,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3158,10 +3143,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3187,10 +3172,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3216,10 +3201,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3245,10 +3230,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3274,10 +3259,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3332,10 +3317,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3361,10 +3346,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -3390,10 +3375,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3419,10 +3404,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3448,10 +3433,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3477,10 +3462,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -3506,10 +3491,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3535,10 +3520,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3564,10 +3549,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3593,10 +3578,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3622,10 +3607,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3651,10 +3636,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3680,10 +3665,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3709,10 +3694,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3738,10 +3723,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F92" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -3767,10 +3752,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3796,10 +3781,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3825,10 +3810,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3854,10 +3839,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3883,10 +3868,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3912,10 +3897,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3941,10 +3926,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3970,10 +3955,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -3999,10 +3984,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4028,10 +4013,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4057,10 +4042,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4086,10 +4071,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4115,10 +4100,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4144,10 +4129,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4173,10 +4158,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4202,10 +4187,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4231,10 +4216,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>4</v>
@@ -4260,10 +4245,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4289,10 +4274,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4318,10 +4303,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>7</v>
@@ -4347,10 +4332,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4376,10 +4361,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4405,10 +4390,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4434,10 +4419,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4463,10 +4448,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4492,10 +4477,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4521,10 +4506,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4550,10 +4535,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -4579,10 +4564,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>

--- a/xlsx/美洲原住民_intext.xlsx
+++ b/xlsx/美洲原住民_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美國原住民</t>
   </si>
   <si>
-    <t>政策_政策_美國_美洲原住民</t>
+    <t>体育运动_体育运动_文化_美洲原住民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%A3%AB%E8%92%82%E7%B4%A2%E4%BA%BA</t>
